--- a/Greenwich/COMP1810-CW REQUIREMENTS -DEADLINE 13-8-24/COMP1810-CW REQUIREMENTS -DEADLINE 13-8-24/Web analys/input.xlsx
+++ b/Greenwich/COMP1810-CW REQUIREMENTS -DEADLINE 13-8-24/COMP1810-CW REQUIREMENTS -DEADLINE 13-8-24/Web analys/input.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\Greenwich-Huynh-Hoang-Tuan-Anh\Greenwich\COMP1810-CW REQUIREMENTS -DEADLINE 13-8-24\COMP1810-CW REQUIREMENTS -DEADLINE 13-8-24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Greenwich-Huynh-Hoang-Tuan-Anh\Greenwich\COMP1810-CW REQUIREMENTS -DEADLINE 13-8-24\COMP1810-CW REQUIREMENTS -DEADLINE 13-8-24\Web analys\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E02325-AE63-4733-AA45-10F52022BD2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="17280" windowHeight="9030"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
@@ -19,17 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -91,8 +81,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -946,19 +936,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -975,7 +965,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -992,7 +982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1009,7 +999,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1026,7 +1016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1043,7 +1033,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1060,7 +1050,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1077,7 +1067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1094,7 +1084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1117,15 +1107,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EB8973A3CF44B949B26AA81986D30065" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="108e56649606026b3699e1f900518ab4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7e1a0011-bbf0-41bc-aa93-e9276f83f0dd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f5430565adfad86ef9f27ef6568796c7" ns2:_="">
     <xsd:import namespace="7e1a0011-bbf0-41bc-aa93-e9276f83f0dd"/>
@@ -1269,6 +1250,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1276,14 +1266,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{787E9A8D-6D08-41B5-A9C1-1D5D4E2866A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{125B5F60-8E02-4328-8191-24EB28D98782}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1301,6 +1283,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{787E9A8D-6D08-41B5-A9C1-1D5D4E2866A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48241841-C989-4637-AD9B-588557CA52B6}">
   <ds:schemaRefs>
